--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_9_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_9_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,166 +518,496 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_2</t>
+          <t>model_9_6_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9262939834462788</v>
+        <v>0.9352443027915913</v>
       </c>
       <c r="C2" t="n">
-        <v>0.789324303185837</v>
+        <v>0.8263303822962003</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6050275197919295</v>
+        <v>0.96064042864996</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7862647320167655</v>
+        <v>0.8678556736542831</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8482806118625984</v>
+        <v>0.9692874461994534</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4928724720797334</v>
+        <v>0.4330216454051976</v>
       </c>
       <c r="H2" t="n">
-        <v>1.408789354668694</v>
+        <v>1.161329533260368</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7878432071396925</v>
+        <v>0.5220328487099741</v>
       </c>
       <c r="J2" t="n">
-        <v>1.321020720985585</v>
+        <v>0.1532337483912041</v>
       </c>
       <c r="K2" t="n">
-        <v>1.054431964062639</v>
+        <v>0.3376332985505891</v>
       </c>
       <c r="L2" t="n">
-        <v>2.264835376299295</v>
+        <v>1.427253679354558</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7020487675936291</v>
+        <v>0.6580438020414732</v>
       </c>
       <c r="N2" t="n">
-        <v>1.353788879457862</v>
+        <v>1.310827346600362</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7319364370713851</v>
+        <v>0.6860580890328374</v>
       </c>
       <c r="P2" t="n">
-        <v>59.4150096314505</v>
+        <v>59.67393512568125</v>
       </c>
       <c r="Q2" t="n">
-        <v>94.76240855262832</v>
+        <v>95.02133404685907</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_1</t>
+          <t>model_9_6_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9258167603547898</v>
+        <v>0.9342127404146074</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7891939857543109</v>
+        <v>0.8252944876139052</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6076754984188389</v>
+        <v>0.9607176615396346</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7853827631669906</v>
+        <v>0.8653096218494853</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8482684343055684</v>
+        <v>0.9691997551897672</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4960636650899308</v>
+        <v>0.4399197077699968</v>
       </c>
       <c r="H3" t="n">
-        <v>1.409660787933365</v>
+        <v>1.168256565770732</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7825613404821402</v>
+        <v>0.5210084954452419</v>
       </c>
       <c r="J3" t="n">
-        <v>1.326471852831116</v>
+        <v>0.1561861344106133</v>
       </c>
       <c r="K3" t="n">
-        <v>1.054516596656628</v>
+        <v>0.3385973149279276</v>
       </c>
       <c r="L3" t="n">
-        <v>2.262479144904202</v>
+        <v>1.440360216188453</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7043178721926137</v>
+        <v>0.6632644327641856</v>
       </c>
       <c r="N3" t="n">
-        <v>1.356079550297009</v>
+        <v>1.315778846009884</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7343021421508426</v>
+        <v>0.691500972813611</v>
       </c>
       <c r="P3" t="n">
-        <v>59.40210200691624</v>
+        <v>59.64232610212535</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.74950092809405</v>
+        <v>94.98972502330317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>model_9_6_6</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9331589556158159</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8242335427868839</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9607939593395596</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8626916707502391</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.969107708074101</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.446966371571749</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.175351108714225</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.519996544438689</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1592218944098195</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3396092194242542</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.453579284211246</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6685554364237486</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.320837013044084</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.6970172254528492</v>
+      </c>
+      <c r="P4" t="n">
+        <v>59.61054383716341</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>94.95794275834122</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>model_9_6_5</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9320824242600333</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8231471223167731</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.96086910751157</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8600016775045866</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9690111679009231</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4541651417048383</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.182616007400362</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5189998411473589</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1623411940390747</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3406705175932168</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.466913203710486</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6739177558907602</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.32600436355184</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.702607829961103</v>
+      </c>
+      <c r="P5" t="n">
+        <v>59.5785887976652</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>94.92598771884302</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>model_9_6_4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9309824741806386</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8220348433590858</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9609426715873826</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8572381734233737</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9689097951229766</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4615205129505547</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.190053821911991</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5180241479997479</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1655457363812919</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3417849421905199</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.480365428598592</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.6793530105553038</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.331284123932935</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.7082744746692445</v>
+      </c>
+      <c r="P6" t="n">
+        <v>59.54645755519359</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>94.8938564763714</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>model_9_6_3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9298585213484163</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8208962668153986</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.961013923717512</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8544010837459085</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9688031467314192</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4690363907149519</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.19766748850229</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5170791185903219</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1688356081285104</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3429573633594161</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.493937602277077</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.6848623151517039</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.336679097527602</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.7140183217681462</v>
+      </c>
+      <c r="P7" t="n">
+        <v>59.51414984280643</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>94.86154876398425</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>model_9_6_2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9287099671834584</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8197310600304539</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9610824290549845</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8514898486591528</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9686909308853908</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4767167777046311</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.205459231638499</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5161705203702213</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1722114584364871</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3441909894033541</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.507630543753346</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.6904467957088591</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.3421921575194</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.7198405452240878</v>
+      </c>
+      <c r="P8" t="n">
+        <v>59.48166544374038</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>94.82906436491818</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>model_9_6_1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9275360895176334</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8185387635378092</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9611477126830839</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8485016228992693</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9685727110360084</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4845665030612124</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.213432123774834</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5153046522425495</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1756765866556749</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3454906194491122</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.521478403137377</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.6961081116185994</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.347826770315359</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.7257428750726452</v>
+      </c>
+      <c r="P9" t="n">
+        <v>59.44900119170104</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>94.79640011287886</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>model_9_6_0</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.9253254282190696</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7890532912924538</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6102812015279775</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.784483732505687</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.848242603353591</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4993492053438681</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.410601612447642</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.7773637999008923</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.3320284375894</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.054696118745146</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.260103027407952</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.706646450032736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.358437944548466</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.7367298523704395</v>
-      </c>
-      <c r="P4" t="n">
-        <v>59.38889923535064</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>94.73629815652845</v>
+      <c r="B10" t="n">
+        <v>0.9263362374809045</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8173189706413151</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9612089961690912</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8454358537996909</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9684479884556104</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4925899191556292</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.221588884490321</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5144918386960098</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1792316336548271</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3468617361754184</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.535846140309702</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.70184750420275</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.353586060091658</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.7317266054812837</v>
+      </c>
+      <c r="P10" t="n">
+        <v>59.41615651613879</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>94.7635554373166</v>
       </c>
     </row>
   </sheetData>
